--- a/casestudy/fast-xml-parser-234/results.xlsx
+++ b/casestudy/fast-xml-parser-234/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/fast-xml-parser-234/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67317496-E50C-ED40-A3C9-A69D97DFA87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC57CC88-5C19-D14D-AEC2-18AD7747FCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7360" yWindow="7400" windowWidth="27240" windowHeight="16440" activeTab="5" xr2:uid="{BA8F4140-1AF3-1848-B3E0-7ADBCED5078A}"/>
   </bookViews>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45260694-0BBD-5143-B71E-4CB7D6F62B75}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,7 +1245,7 @@
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="2"/>
@@ -1257,7 +1257,7 @@
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C430C8-EF7C-864F-9C13-90FBBD429C35}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1375,7 +1375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1489,7 +1489,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1518,7 +1518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1612,7 +1612,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1641,7 +1641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -1783,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAD8DAD-99CB-094E-8B83-51C6C4237597}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1813,7 +1813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
